--- a/static/others/login.xlsx
+++ b/static/others/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberthsu/Documents/GitHub/__web2/static/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0B245F-BE28-8248-8C2F-2B83A18ECCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973ADB62-30A2-3646-9C42-1929359F156B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="800" windowWidth="19720" windowHeight="14920" xr2:uid="{290A83FB-7181-B64E-A942-D9232862054E}"/>
   </bookViews>
@@ -33,13 +33,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>roberthsu2003@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberthsu2004@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberthsu2005@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a98765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a87654</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA16C92-CC26-EB43-9190-A58A0A808D55}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -440,10 +456,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{4EB90D5A-F972-6643-A6A4-9497B0A2D979}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{D65D29C1-9C9C-6B40-8C8C-8A94D90A8D56}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{F09BE949-B86E-694F-9924-DE81B6B8CDC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
